--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_9_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_9_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.50851989695495e-16</v>
+        <v>3.640075490574284e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.87651112049326</v>
+        <v>42.27377339512299</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.13098106450224, 57.62204117648429]</t>
+          <t>[31.71069659386601, 52.83685019637996]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>7.083222897108499e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>7.083222897108499e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.364816027685656</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 1.616395018964118]</t>
+          <t>[1.1132370364071935, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.96952317843511</v>
+        <v>58.3830658709866</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.61848121289577, 67.32056514397445]</t>
+          <t>[52.04004449458685, 64.72608724738635]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.88072072072098</v>
+        <v>18.79193193193219</v>
       </c>
       <c r="X2" t="n">
-        <v>17.9149549549552</v>
+        <v>17.7291491491494</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.84648648648676</v>
+        <v>19.85471471471499</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.450087215836939e-15</v>
+        <v>3.640075490574284e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.843781361358</v>
+        <v>47.14507155977988</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.533994675699915, 60.15356804701608]</t>
+          <t>[35.536791199121694, 58.753351920438064]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.867284270597793e-11</v>
+        <v>5.484501741648273e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>3.867284270597793e-11</v>
+        <v>7.083222897108499e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4717106086471157</v>
+        <v>-0.3144737390980774</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1823947686768843, 0.761026448617347]</t>
+          <t>[-0.5660527303765388, -0.06289474781961601]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.001500936130424124</v>
+        <v>0.01450859733312981</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001500936130424124</v>
+        <v>0.01450859733312981</v>
       </c>
       <c r="S3" t="n">
-        <v>66.50443167377622</v>
+        <v>58.44161333154718</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[59.33327321709908, 73.67559013045337]</t>
+          <t>[51.83801084694983, 65.04521581614453]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.00396396396422</v>
+        <v>1.174174174174187</v>
       </c>
       <c r="X3" t="n">
-        <v>20.90852852852878</v>
+        <v>0.2348348348348404</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.09939939939967</v>
+        <v>2.113513513513533</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_9_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_9_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.640075490574284e-16</v>
+        <v>2.566989652312501e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.27377339512299</v>
+        <v>46.51010845581174</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.71069659386601, 52.83685019637996]</t>
+          <t>[36.482312559233904, 56.537904352389575]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.083222897108499e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.083222897108499e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.389973926813502</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 1.6667108172198102]</t>
+          <t>[1.3522370781217328, 1.8302371615508095]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.3830658709866</v>
+        <v>63.58380198384279</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.04004449458685, 64.72608724738635]</t>
+          <t>[57.038514893006365, 70.12908907467921]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.79193193193219</v>
+        <v>18.1982182182185</v>
       </c>
       <c r="X2" t="n">
-        <v>17.7291491491494</v>
+        <v>17.2712312312315</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.85471471471499</v>
+        <v>19.1252052052055</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.640075490574284e-16</v>
+        <v>2.566989652312501e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.14507155977988</v>
+        <v>51.50054394357365</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.536791199121694, 58.753351920438064]</t>
+          <t>[38.92536989037748, 64.07571799676982]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.484501741648273e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>7.083222897108499e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3144737390980774</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, -0.06289474781961601]</t>
+          <t>[1.0629212381515014, 1.5660792207084242]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01450859733312981</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01450859733312981</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.44161333154718</v>
+        <v>68.6716883116909</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.83801084694983, 65.04521581614453]</t>
+          <t>[61.45483745594592, 75.88853916743588]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.174174174174187</v>
+        <v>19.08968968968995</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2348348348348404</v>
+        <v>18.12312312312338</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.113513513513533</v>
+        <v>20.05625625625653</v>
       </c>
     </row>
   </sheetData>
